--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\Biotility\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="25875" windowHeight="11760"/>
   </bookViews>
@@ -589,9 +594,6 @@
   </si>
   <si>
     <t>Most ATP in eukaryotic cells is produced in the:</t>
-  </si>
-  <si>
-    <t>Miotochondria</t>
   </si>
   <si>
     <t>Rough endoplasmic reticulum</t>
@@ -2049,6 +2051,9 @@
   </si>
   <si>
     <t>http://www.bioprocessintl.com/analytical/product-characterization/building-a-robust-bioassay-for-product-potency-measurement/</t>
+  </si>
+  <si>
+    <t>Mitochondria</t>
   </si>
 </sst>
 </file>
@@ -2781,6 +2786,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3114,8 +3122,8 @@
   <dimension ref="A1:AA280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3177,19 +3185,19 @@
         <v>6</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="N1" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>49</v>
@@ -3233,7 +3241,7 @@
     </row>
     <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
@@ -3245,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>132</v>
+        <v>383</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -3254,10 +3262,10 @@
         <v>24</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -3265,10 +3273,10 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
@@ -3682,40 +3690,40 @@
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="M11" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
@@ -3737,41 +3745,41 @@
         <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="L12" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="O12" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -3794,22 +3802,22 @@
         <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" s="5">
         <v>4</v>
       </c>
       <c r="E13" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>194</v>
-      </c>
       <c r="H13" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -3818,10 +3826,10 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -3843,22 +3851,22 @@
         <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D14" s="5">
         <v>2</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -3867,10 +3875,10 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -3892,22 +3900,22 @@
         <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -3916,10 +3924,10 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
@@ -3941,22 +3949,22 @@
         <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D16" s="5">
         <v>3</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -3965,10 +3973,10 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
@@ -3990,10 +3998,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -4006,10 +4014,10 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
@@ -4031,7 +4039,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>21</v>
@@ -4047,10 +4055,10 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
@@ -4072,7 +4080,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>21</v>
@@ -4088,10 +4096,10 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
@@ -4113,10 +4121,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -4129,10 +4137,10 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
@@ -4203,23 +4211,23 @@
         <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>354</v>
       </c>
       <c r="J22" s="5">
         <v>2</v>
@@ -4237,10 +4245,10 @@
         <v>3</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
@@ -4262,7 +4270,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>21</v>
@@ -4278,10 +4286,10 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -4303,25 +4311,25 @@
         <v>18</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D24" s="5">
         <v>4</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="G24" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="I24" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -4329,10 +4337,10 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -4354,7 +4362,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
@@ -4369,10 +4377,10 @@
         <v>99</v>
       </c>
       <c r="H25" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -4380,10 +4388,10 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -4405,7 +4413,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D26" s="5">
         <v>2</v>
@@ -4420,10 +4428,10 @@
         <v>99</v>
       </c>
       <c r="H26" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -4431,10 +4439,10 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
@@ -4456,7 +4464,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D27" s="5">
         <v>5</v>
@@ -4471,10 +4479,10 @@
         <v>99</v>
       </c>
       <c r="H27" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -4482,10 +4490,10 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
@@ -4507,7 +4515,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>21</v>
@@ -4523,10 +4531,10 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
@@ -4548,22 +4556,22 @@
         <v>18</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D29" s="5">
         <v>4</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>377</v>
-      </c>
       <c r="H29" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -4572,10 +4580,10 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
@@ -4597,10 +4605,10 @@
         <v>20</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>325</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>326</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -4613,10 +4621,10 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
@@ -4638,7 +4646,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>21</v>
@@ -4654,10 +4662,10 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
@@ -4679,7 +4687,7 @@
         <v>20</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>21</v>
@@ -4695,10 +4703,10 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
@@ -4720,10 +4728,10 @@
         <v>20</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -4736,10 +4744,10 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
@@ -4761,7 +4769,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>21</v>
@@ -4777,10 +4785,10 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
@@ -4900,20 +4908,20 @@
         <v>18</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4">
@@ -4930,10 +4938,10 @@
       </c>
       <c r="N37" s="5"/>
       <c r="O37" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
@@ -5102,36 +5110,36 @@
         <v>18</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="L41" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
@@ -5153,37 +5161,37 @@
         <v>18</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F42" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K42" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L42" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="M42" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
@@ -5206,36 +5214,36 @@
         <v>18</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="K43" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="L43" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
@@ -5257,40 +5265,40 @@
         <v>18</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="M44" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="N44" s="5"/>
       <c r="O44" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
@@ -5306,28 +5314,28 @@
     </row>
     <row r="45" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="G45" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -5336,10 +5344,10 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
@@ -5355,28 +5363,28 @@
     </row>
     <row r="46" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D46" s="5">
         <v>4</v>
       </c>
       <c r="E46" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="H46" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -5385,10 +5393,10 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
@@ -5404,28 +5412,28 @@
     </row>
     <row r="47" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D47" s="5">
         <v>2</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F47" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -5434,10 +5442,10 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
@@ -5453,28 +5461,28 @@
     </row>
     <row r="48" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D48" s="5">
         <v>3</v>
       </c>
       <c r="E48" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="G48" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -5483,10 +5491,10 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
@@ -5502,28 +5510,28 @@
     </row>
     <row r="49" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D49" s="5">
         <v>1</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -5532,10 +5540,10 @@
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
@@ -5551,28 +5559,28 @@
     </row>
     <row r="50" spans="1:27" ht="45" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D50" s="5">
         <v>4</v>
       </c>
       <c r="E50" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="G50" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -5581,10 +5589,10 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
@@ -5600,28 +5608,28 @@
     </row>
     <row r="51" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D51" s="5">
         <v>2</v>
       </c>
       <c r="E51" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="H51" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -5630,10 +5638,10 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="P51" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
@@ -5649,28 +5657,28 @@
     </row>
     <row r="52" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D52" s="5">
         <v>3</v>
       </c>
       <c r="E52" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="G52" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -5679,10 +5687,10 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="P52" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
@@ -5698,28 +5706,28 @@
     </row>
     <row r="53" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D53" s="5">
         <v>4</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
@@ -5728,10 +5736,10 @@
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
@@ -5747,28 +5755,28 @@
     </row>
     <row r="54" spans="1:27" ht="66" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D54" s="5">
         <v>4</v>
       </c>
       <c r="E54" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="G54" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>263</v>
-      </c>
       <c r="H54" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
@@ -5777,10 +5785,10 @@
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
@@ -5796,28 +5804,28 @@
     </row>
     <row r="55" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D55" s="5">
         <v>2</v>
       </c>
       <c r="E55" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="G55" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="H55" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
@@ -5826,10 +5834,10 @@
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
@@ -5845,28 +5853,28 @@
     </row>
     <row r="56" spans="1:27" ht="36" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D56" s="5">
         <v>1</v>
       </c>
       <c r="E56" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="G56" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="H56" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>285</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -5875,10 +5883,10 @@
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
@@ -5894,28 +5902,28 @@
     </row>
     <row r="57" spans="1:27" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D57" s="5">
         <v>3</v>
       </c>
       <c r="E57" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="G57" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H57" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>290</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
@@ -5924,10 +5932,10 @@
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
@@ -5943,28 +5951,28 @@
     </row>
     <row r="58" spans="1:27" ht="51" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D58" s="5">
         <v>2</v>
       </c>
       <c r="E58" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="G58" s="5" t="s">
+      <c r="H58" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>294</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -5973,10 +5981,10 @@
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
@@ -5992,28 +6000,28 @@
     </row>
     <row r="59" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D59" s="5">
         <v>4</v>
       </c>
       <c r="E59" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H59" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -6022,10 +6030,10 @@
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
@@ -6041,28 +6049,28 @@
     </row>
     <row r="60" spans="1:27" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D60" s="5">
         <v>3</v>
       </c>
       <c r="E60" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="G60" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H60" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>306</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
@@ -6071,10 +6079,10 @@
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
@@ -6090,28 +6098,28 @@
     </row>
     <row r="61" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D61" s="5">
         <v>2</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F61" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H61" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>309</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
@@ -6120,10 +6128,10 @@
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
@@ -6139,29 +6147,29 @@
     </row>
     <row r="62" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="H62" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="I62" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>316</v>
       </c>
       <c r="J62" s="5">
         <v>4</v>
@@ -6179,10 +6187,10 @@
         <v>3</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
@@ -6198,42 +6206,42 @@
     </row>
     <row r="63" spans="1:27" ht="126" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="F63" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="F63" s="15" t="s">
+      <c r="G63" s="15" t="s">
         <v>318</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>319</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K63" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="L63" s="14" t="s">
         <v>320</v>
-      </c>
-      <c r="L63" s="14" t="s">
-        <v>321</v>
       </c>
       <c r="M63" s="11"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\Biotility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\Github\Biotility\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="25875" windowHeight="11760"/>
+    <workbookView xWindow="360" yWindow="108" windowWidth="25872" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -591,9 +591,6 @@
   </si>
   <si>
     <t>http://www.diffen.com/difference/Aerobic_Respiration_vs_Anaerobic_Respiration</t>
-  </si>
-  <si>
-    <t>Most ATP in eukaryotic cells is produced in the:</t>
   </si>
   <si>
     <t>Rough endoplasmic reticulum</t>
@@ -2055,12 +2052,15 @@
   <si>
     <t>Mitochondria</t>
   </si>
+  <si>
+    <t>Test Question Text</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3126,37 +3126,37 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.09765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.8984375" style="1" customWidth="1"/>
     <col min="9" max="9" width="21" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="20.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.8984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.69921875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="20.8984375" style="1" customWidth="1"/>
     <col min="15" max="15" width="26" style="1" customWidth="1"/>
-    <col min="16" max="16" width="39.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="39.59765625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.09765625" style="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="11.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" style="1" customWidth="1"/>
-    <col min="26" max="27" width="12.28515625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="9.09765625" style="1"/>
+    <col min="20" max="20" width="11.59765625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.3984375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.8984375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.59765625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="13.59765625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.3984375" style="1" customWidth="1"/>
+    <col min="26" max="27" width="12.296875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3185,19 +3185,19 @@
         <v>6</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="N1" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>49</v>
@@ -3239,21 +3239,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="27.6">
       <c r="A2" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>131</v>
+        <v>383</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -3262,10 +3262,10 @@
         <v>24</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -3273,10 +3273,10 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
@@ -3290,7 +3290,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="75">
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
@@ -3339,7 +3339,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="45">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="30">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -3437,7 +3437,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="30">
       <c r="A6" s="5" t="s">
         <v>55</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="45">
       <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
@@ -3537,7 +3537,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="60">
       <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
@@ -3586,7 +3586,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="54.75" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
@@ -3635,7 +3635,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="31.5">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -3682,7 +3682,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="55.2">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -3690,40 +3690,40 @@
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="M11" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
@@ -3737,7 +3737,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="90">
       <c r="A12" s="5" t="s">
         <v>55</v>
       </c>
@@ -3745,41 +3745,41 @@
         <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="L12" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="O12" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -3794,7 +3794,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="82.8">
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
@@ -3802,22 +3802,22 @@
         <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D13" s="5">
         <v>4</v>
       </c>
       <c r="E13" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>193</v>
-      </c>
       <c r="H13" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -3826,10 +3826,10 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -3843,7 +3843,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="55.2">
       <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
@@ -3851,22 +3851,22 @@
         <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D14" s="5">
         <v>2</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>201</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -3875,10 +3875,10 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -3892,7 +3892,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" ht="33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="30">
       <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
@@ -3900,22 +3900,22 @@
         <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -3924,10 +3924,10 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
@@ -3941,7 +3941,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" ht="36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="32.4">
       <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
@@ -3949,22 +3949,22 @@
         <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D16" s="5">
         <v>3</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -3973,10 +3973,10 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
@@ -3990,7 +3990,7 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="27.6">
       <c r="A17" s="5" t="s">
         <v>55</v>
       </c>
@@ -3998,10 +3998,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -4014,10 +4014,10 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
@@ -4031,7 +4031,7 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="27.6">
       <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>21</v>
@@ -4055,10 +4055,10 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
@@ -4072,7 +4072,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="41.4">
       <c r="A19" s="5" t="s">
         <v>55</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>21</v>
@@ -4096,10 +4096,10 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
@@ -4113,7 +4113,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="27.6">
       <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
@@ -4121,10 +4121,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -4137,10 +4137,10 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
@@ -4154,7 +4154,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="41.4">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
@@ -4203,7 +4203,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="41.4">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -4211,23 +4211,23 @@
         <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>353</v>
       </c>
       <c r="J22" s="5">
         <v>2</v>
@@ -4245,10 +4245,10 @@
         <v>3</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
@@ -4262,7 +4262,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="41.4">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>21</v>
@@ -4286,10 +4286,10 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -4303,7 +4303,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="41.4">
       <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
@@ -4311,25 +4311,25 @@
         <v>18</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D24" s="5">
         <v>4</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="G24" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>359</v>
-      </c>
       <c r="I24" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -4337,10 +4337,10 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -4354,7 +4354,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="41.4">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
@@ -4377,10 +4377,10 @@
         <v>99</v>
       </c>
       <c r="H25" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>362</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>363</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -4388,10 +4388,10 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -4405,7 +4405,7 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="41.4">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D26" s="5">
         <v>2</v>
@@ -4428,10 +4428,10 @@
         <v>99</v>
       </c>
       <c r="H26" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>362</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>363</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -4439,10 +4439,10 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
@@ -4456,7 +4456,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="41.4">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D27" s="5">
         <v>5</v>
@@ -4479,10 +4479,10 @@
         <v>99</v>
       </c>
       <c r="H27" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>362</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>363</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -4490,10 +4490,10 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
@@ -4507,7 +4507,7 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="41.4">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>21</v>
@@ -4531,10 +4531,10 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
@@ -4548,7 +4548,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="41.4">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -4556,22 +4556,22 @@
         <v>18</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D29" s="5">
         <v>4</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="H29" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -4580,10 +4580,10 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
@@ -4597,7 +4597,7 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="27.6">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -4605,10 +4605,10 @@
         <v>20</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -4621,10 +4621,10 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
@@ -4638,7 +4638,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="27.6">
       <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>21</v>
@@ -4662,10 +4662,10 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
@@ -4679,7 +4679,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="69">
       <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>20</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>21</v>
@@ -4703,10 +4703,10 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
@@ -4720,7 +4720,7 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="69">
       <c r="A33" s="5" t="s">
         <v>28</v>
       </c>
@@ -4728,10 +4728,10 @@
         <v>20</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -4744,10 +4744,10 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
@@ -4761,7 +4761,7 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="55.2">
       <c r="A34" s="5" t="s">
         <v>28</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>21</v>
@@ -4785,10 +4785,10 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
@@ -4802,7 +4802,7 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="41.4">
       <c r="A35" s="5" t="s">
         <v>40</v>
       </c>
@@ -4851,7 +4851,7 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:27" ht="210" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="193.2">
       <c r="A36" s="5" t="s">
         <v>64</v>
       </c>
@@ -4900,7 +4900,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:27" ht="135" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="111">
       <c r="A37" s="5" t="s">
         <v>64</v>
       </c>
@@ -4908,20 +4908,20 @@
         <v>18</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4">
@@ -4938,10 +4938,10 @@
       </c>
       <c r="N37" s="5"/>
       <c r="O37" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
@@ -4955,7 +4955,7 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="41.4">
       <c r="A38" s="5" t="s">
         <v>64</v>
       </c>
@@ -5004,7 +5004,7 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="41.4">
       <c r="A39" s="5" t="s">
         <v>64</v>
       </c>
@@ -5053,7 +5053,7 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="41.4">
       <c r="A40" s="5" t="s">
         <v>64</v>
       </c>
@@ -5102,7 +5102,7 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="1:27" ht="120" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="96.6">
       <c r="A41" s="5" t="s">
         <v>64</v>
       </c>
@@ -5110,36 +5110,36 @@
         <v>18</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="L41" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
@@ -5153,7 +5153,7 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
     </row>
-    <row r="42" spans="1:27" ht="120" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" ht="110.4">
       <c r="A42" s="5" t="s">
         <v>64</v>
       </c>
@@ -5161,37 +5161,37 @@
         <v>18</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F42" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K42" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L42" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="M42" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
@@ -5206,7 +5206,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27" ht="120" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" ht="96.6">
       <c r="A43" s="5" t="s">
         <v>64</v>
       </c>
@@ -5214,36 +5214,36 @@
         <v>18</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="K43" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="L43" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
@@ -5257,7 +5257,7 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" spans="1:27" ht="135" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" ht="110.4">
       <c r="A44" s="5" t="s">
         <v>64</v>
       </c>
@@ -5265,40 +5265,40 @@
         <v>18</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="M44" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="N44" s="5"/>
       <c r="O44" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
@@ -5312,30 +5312,30 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
     </row>
-    <row r="45" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" ht="41.4">
       <c r="A45" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="G45" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -5344,10 +5344,10 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
@@ -5361,30 +5361,30 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="27.6">
       <c r="A46" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D46" s="5">
         <v>4</v>
       </c>
       <c r="E46" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="H46" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -5393,10 +5393,10 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
@@ -5410,30 +5410,30 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" ht="27.6">
       <c r="A47" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D47" s="5">
         <v>2</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F47" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -5442,10 +5442,10 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
@@ -5459,30 +5459,30 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" ht="27.6">
       <c r="A48" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D48" s="5">
         <v>3</v>
       </c>
       <c r="E48" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="G48" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -5491,10 +5491,10 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
@@ -5508,30 +5508,30 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" ht="27.6">
       <c r="A49" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D49" s="5">
         <v>1</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -5540,10 +5540,10 @@
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
@@ -5557,30 +5557,30 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
     </row>
-    <row r="50" spans="1:27" ht="45" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" ht="32.4">
       <c r="A50" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D50" s="5">
         <v>4</v>
       </c>
       <c r="E50" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="G50" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -5589,10 +5589,10 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
@@ -5606,30 +5606,30 @@
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
     </row>
-    <row r="51" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" ht="27.6">
       <c r="A51" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D51" s="5">
         <v>2</v>
       </c>
       <c r="E51" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="H51" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -5638,10 +5638,10 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="P51" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
@@ -5655,30 +5655,30 @@
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
     </row>
-    <row r="52" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" ht="27.6">
       <c r="A52" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D52" s="5">
         <v>3</v>
       </c>
       <c r="E52" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="G52" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -5687,10 +5687,10 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="P52" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
@@ -5704,30 +5704,30 @@
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
     </row>
-    <row r="53" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" ht="27.6">
       <c r="A53" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D53" s="5">
         <v>4</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
@@ -5736,10 +5736,10 @@
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
@@ -5753,30 +5753,30 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
     </row>
-    <row r="54" spans="1:27" ht="66" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="48.6">
       <c r="A54" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D54" s="5">
         <v>4</v>
       </c>
       <c r="E54" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="G54" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>262</v>
-      </c>
       <c r="H54" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
@@ -5785,10 +5785,10 @@
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
@@ -5802,30 +5802,30 @@
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
     </row>
-    <row r="55" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="27.6">
       <c r="A55" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D55" s="5">
         <v>2</v>
       </c>
       <c r="E55" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="G55" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="H55" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
@@ -5834,10 +5834,10 @@
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
@@ -5851,30 +5851,30 @@
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
     </row>
-    <row r="56" spans="1:27" ht="36" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:27" ht="32.4">
       <c r="A56" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D56" s="5">
         <v>1</v>
       </c>
       <c r="E56" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="G56" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="H56" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>284</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -5883,10 +5883,10 @@
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
@@ -5900,30 +5900,30 @@
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
     </row>
-    <row r="57" spans="1:27" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" ht="42.6">
       <c r="A57" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D57" s="5">
         <v>3</v>
       </c>
       <c r="E57" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="G57" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H57" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
@@ -5932,10 +5932,10 @@
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
@@ -5949,30 +5949,30 @@
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
     </row>
-    <row r="58" spans="1:27" ht="51" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:27" ht="46.2">
       <c r="A58" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D58" s="5">
         <v>2</v>
       </c>
       <c r="E58" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="G58" s="5" t="s">
+      <c r="H58" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -5981,10 +5981,10 @@
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
@@ -5998,30 +5998,30 @@
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
     </row>
-    <row r="59" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" ht="60.75" customHeight="1">
       <c r="A59" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D59" s="5">
         <v>4</v>
       </c>
       <c r="E59" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H59" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -6030,10 +6030,10 @@
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
@@ -6047,30 +6047,30 @@
       <c r="Z59" s="5"/>
       <c r="AA59" s="5"/>
     </row>
-    <row r="60" spans="1:27" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:27" ht="67.5" customHeight="1">
       <c r="A60" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D60" s="5">
         <v>3</v>
       </c>
       <c r="E60" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="G60" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H60" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>305</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
@@ -6079,10 +6079,10 @@
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
@@ -6096,30 +6096,30 @@
       <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
     </row>
-    <row r="61" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:27" ht="60.75" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D61" s="5">
         <v>2</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F61" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="H61" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
@@ -6128,10 +6128,10 @@
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
@@ -6145,31 +6145,31 @@
       <c r="Z61" s="5"/>
       <c r="AA61" s="5"/>
     </row>
-    <row r="62" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="69">
       <c r="A62" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="H62" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="I62" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="J62" s="5">
         <v>4</v>
@@ -6187,10 +6187,10 @@
         <v>3</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
@@ -6204,44 +6204,44 @@
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
     </row>
-    <row r="63" spans="1:27" ht="126" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="120">
       <c r="A63" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="F63" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="F63" s="15" t="s">
+      <c r="G63" s="15" t="s">
         <v>317</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>318</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K63" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="L63" s="14" t="s">
         <v>319</v>
-      </c>
-      <c r="L63" s="14" t="s">
-        <v>320</v>
       </c>
       <c r="M63" s="11"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
@@ -6255,7 +6255,7 @@
       <c r="Z63" s="5"/>
       <c r="AA63" s="5"/>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -6284,7 +6284,7 @@
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -6313,7 +6313,7 @@
       <c r="Z65" s="5"/>
       <c r="AA65" s="5"/>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -6342,7 +6342,7 @@
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -6371,7 +6371,7 @@
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -6400,7 +6400,7 @@
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -6429,7 +6429,7 @@
       <c r="Z69" s="5"/>
       <c r="AA69" s="5"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -6458,7 +6458,7 @@
       <c r="Z70" s="5"/>
       <c r="AA70" s="5"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -6487,7 +6487,7 @@
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -6516,7 +6516,7 @@
       <c r="Z72" s="5"/>
       <c r="AA72" s="5"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -6545,7 +6545,7 @@
       <c r="Z73" s="5"/>
       <c r="AA73" s="5"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -6574,7 +6574,7 @@
       <c r="Z74" s="5"/>
       <c r="AA74" s="5"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -6603,7 +6603,7 @@
       <c r="Z75" s="5"/>
       <c r="AA75" s="5"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -6632,7 +6632,7 @@
       <c r="Z76" s="5"/>
       <c r="AA76" s="5"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -6661,7 +6661,7 @@
       <c r="Z77" s="5"/>
       <c r="AA77" s="5"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -6690,7 +6690,7 @@
       <c r="Z78" s="5"/>
       <c r="AA78" s="5"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -6719,7 +6719,7 @@
       <c r="Z79" s="5"/>
       <c r="AA79" s="5"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -6748,7 +6748,7 @@
       <c r="Z80" s="5"/>
       <c r="AA80" s="5"/>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -6777,7 +6777,7 @@
       <c r="Z81" s="4"/>
       <c r="AA81" s="4"/>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -6806,7 +6806,7 @@
       <c r="Z82" s="4"/>
       <c r="AA82" s="4"/>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -6835,7 +6835,7 @@
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -6864,7 +6864,7 @@
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -6893,7 +6893,7 @@
       <c r="Z85" s="4"/>
       <c r="AA85" s="4"/>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -6922,7 +6922,7 @@
       <c r="Z86" s="4"/>
       <c r="AA86" s="4"/>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -6951,7 +6951,7 @@
       <c r="Z87" s="4"/>
       <c r="AA87" s="4"/>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -6980,7 +6980,7 @@
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -7009,7 +7009,7 @@
       <c r="Z89" s="4"/>
       <c r="AA89" s="4"/>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -7038,7 +7038,7 @@
       <c r="Z90" s="4"/>
       <c r="AA90" s="4"/>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -7067,7 +7067,7 @@
       <c r="Z91" s="4"/>
       <c r="AA91" s="4"/>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -7096,7 +7096,7 @@
       <c r="Z92" s="4"/>
       <c r="AA92" s="4"/>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -7125,7 +7125,7 @@
       <c r="Z93" s="4"/>
       <c r="AA93" s="4"/>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -7154,7 +7154,7 @@
       <c r="Z94" s="4"/>
       <c r="AA94" s="4"/>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -7183,7 +7183,7 @@
       <c r="Z95" s="4"/>
       <c r="AA95" s="4"/>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -7212,7 +7212,7 @@
       <c r="Z96" s="4"/>
       <c r="AA96" s="4"/>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -7241,7 +7241,7 @@
       <c r="Z97" s="4"/>
       <c r="AA97" s="4"/>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -7270,7 +7270,7 @@
       <c r="Z98" s="4"/>
       <c r="AA98" s="4"/>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -7299,7 +7299,7 @@
       <c r="Z99" s="4"/>
       <c r="AA99" s="4"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -7328,7 +7328,7 @@
       <c r="Z100" s="4"/>
       <c r="AA100" s="4"/>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -7357,7 +7357,7 @@
       <c r="Z101" s="4"/>
       <c r="AA101" s="4"/>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -7386,7 +7386,7 @@
       <c r="Z102" s="4"/>
       <c r="AA102" s="4"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -7415,7 +7415,7 @@
       <c r="Z103" s="4"/>
       <c r="AA103" s="4"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -7444,7 +7444,7 @@
       <c r="Z104" s="4"/>
       <c r="AA104" s="4"/>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -7473,7 +7473,7 @@
       <c r="Z105" s="4"/>
       <c r="AA105" s="4"/>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -7502,7 +7502,7 @@
       <c r="Z106" s="4"/>
       <c r="AA106" s="4"/>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -7531,7 +7531,7 @@
       <c r="Z107" s="4"/>
       <c r="AA107" s="4"/>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -7560,7 +7560,7 @@
       <c r="Z108" s="4"/>
       <c r="AA108" s="4"/>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -7589,7 +7589,7 @@
       <c r="Z109" s="4"/>
       <c r="AA109" s="4"/>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -7618,7 +7618,7 @@
       <c r="Z110" s="4"/>
       <c r="AA110" s="4"/>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -7647,7 +7647,7 @@
       <c r="Z111" s="4"/>
       <c r="AA111" s="4"/>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -7676,7 +7676,7 @@
       <c r="Z112" s="4"/>
       <c r="AA112" s="4"/>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -7705,7 +7705,7 @@
       <c r="Z113" s="4"/>
       <c r="AA113" s="4"/>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -7734,7 +7734,7 @@
       <c r="Z114" s="4"/>
       <c r="AA114" s="4"/>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -7763,7 +7763,7 @@
       <c r="Z115" s="4"/>
       <c r="AA115" s="4"/>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -7792,7 +7792,7 @@
       <c r="Z116" s="4"/>
       <c r="AA116" s="4"/>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -7821,7 +7821,7 @@
       <c r="Z117" s="4"/>
       <c r="AA117" s="4"/>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -7850,7 +7850,7 @@
       <c r="Z118" s="4"/>
       <c r="AA118" s="4"/>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -7879,7 +7879,7 @@
       <c r="Z119" s="4"/>
       <c r="AA119" s="4"/>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -7908,7 +7908,7 @@
       <c r="Z120" s="4"/>
       <c r="AA120" s="4"/>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -7937,7 +7937,7 @@
       <c r="Z121" s="4"/>
       <c r="AA121" s="4"/>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -7966,7 +7966,7 @@
       <c r="Z122" s="4"/>
       <c r="AA122" s="4"/>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -7995,7 +7995,7 @@
       <c r="Z123" s="4"/>
       <c r="AA123" s="4"/>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -8024,7 +8024,7 @@
       <c r="Z124" s="4"/>
       <c r="AA124" s="4"/>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -8053,7 +8053,7 @@
       <c r="Z125" s="4"/>
       <c r="AA125" s="4"/>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -8082,7 +8082,7 @@
       <c r="Z126" s="4"/>
       <c r="AA126" s="4"/>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -8111,7 +8111,7 @@
       <c r="Z127" s="4"/>
       <c r="AA127" s="4"/>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -8140,7 +8140,7 @@
       <c r="Z128" s="4"/>
       <c r="AA128" s="4"/>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -8169,7 +8169,7 @@
       <c r="Z129" s="4"/>
       <c r="AA129" s="4"/>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -8198,7 +8198,7 @@
       <c r="Z130" s="4"/>
       <c r="AA130" s="4"/>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -8227,7 +8227,7 @@
       <c r="Z131" s="4"/>
       <c r="AA131" s="4"/>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -8256,7 +8256,7 @@
       <c r="Z132" s="4"/>
       <c r="AA132" s="4"/>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -8285,7 +8285,7 @@
       <c r="Z133" s="4"/>
       <c r="AA133" s="4"/>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -8314,7 +8314,7 @@
       <c r="Z134" s="4"/>
       <c r="AA134" s="4"/>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -8343,7 +8343,7 @@
       <c r="Z135" s="4"/>
       <c r="AA135" s="4"/>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -8372,7 +8372,7 @@
       <c r="Z136" s="4"/>
       <c r="AA136" s="4"/>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -8401,7 +8401,7 @@
       <c r="Z137" s="4"/>
       <c r="AA137" s="4"/>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -8430,7 +8430,7 @@
       <c r="Z138" s="4"/>
       <c r="AA138" s="4"/>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -8459,7 +8459,7 @@
       <c r="Z139" s="4"/>
       <c r="AA139" s="4"/>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -8488,7 +8488,7 @@
       <c r="Z140" s="4"/>
       <c r="AA140" s="4"/>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -8517,7 +8517,7 @@
       <c r="Z141" s="4"/>
       <c r="AA141" s="4"/>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -8546,7 +8546,7 @@
       <c r="Z142" s="4"/>
       <c r="AA142" s="4"/>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -8575,7 +8575,7 @@
       <c r="Z143" s="4"/>
       <c r="AA143" s="4"/>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -8604,7 +8604,7 @@
       <c r="Z144" s="4"/>
       <c r="AA144" s="4"/>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -8633,7 +8633,7 @@
       <c r="Z145" s="4"/>
       <c r="AA145" s="4"/>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -8662,7 +8662,7 @@
       <c r="Z146" s="4"/>
       <c r="AA146" s="4"/>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -8691,7 +8691,7 @@
       <c r="Z147" s="4"/>
       <c r="AA147" s="4"/>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -8720,7 +8720,7 @@
       <c r="Z148" s="4"/>
       <c r="AA148" s="4"/>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -8749,7 +8749,7 @@
       <c r="Z149" s="4"/>
       <c r="AA149" s="4"/>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -8778,7 +8778,7 @@
       <c r="Z150" s="4"/>
       <c r="AA150" s="4"/>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -8807,7 +8807,7 @@
       <c r="Z151" s="4"/>
       <c r="AA151" s="4"/>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -8836,7 +8836,7 @@
       <c r="Z152" s="4"/>
       <c r="AA152" s="4"/>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -8865,7 +8865,7 @@
       <c r="Z153" s="4"/>
       <c r="AA153" s="4"/>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -8894,7 +8894,7 @@
       <c r="Z154" s="4"/>
       <c r="AA154" s="4"/>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -8923,7 +8923,7 @@
       <c r="Z155" s="4"/>
       <c r="AA155" s="4"/>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -8952,7 +8952,7 @@
       <c r="Z156" s="4"/>
       <c r="AA156" s="4"/>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -8981,7 +8981,7 @@
       <c r="Z157" s="4"/>
       <c r="AA157" s="4"/>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -9010,7 +9010,7 @@
       <c r="Z158" s="4"/>
       <c r="AA158" s="4"/>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:27">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -9039,7 +9039,7 @@
       <c r="Z159" s="4"/>
       <c r="AA159" s="4"/>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -9068,7 +9068,7 @@
       <c r="Z160" s="4"/>
       <c r="AA160" s="4"/>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -9097,7 +9097,7 @@
       <c r="Z161" s="4"/>
       <c r="AA161" s="4"/>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -9126,7 +9126,7 @@
       <c r="Z162" s="4"/>
       <c r="AA162" s="4"/>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -9155,7 +9155,7 @@
       <c r="Z163" s="4"/>
       <c r="AA163" s="4"/>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -9184,7 +9184,7 @@
       <c r="Z164" s="4"/>
       <c r="AA164" s="4"/>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -9213,7 +9213,7 @@
       <c r="Z165" s="4"/>
       <c r="AA165" s="4"/>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -9242,7 +9242,7 @@
       <c r="Z166" s="4"/>
       <c r="AA166" s="4"/>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -9271,7 +9271,7 @@
       <c r="Z167" s="4"/>
       <c r="AA167" s="4"/>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:27">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -9300,7 +9300,7 @@
       <c r="Z168" s="4"/>
       <c r="AA168" s="4"/>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:27">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -9329,7 +9329,7 @@
       <c r="Z169" s="4"/>
       <c r="AA169" s="4"/>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -9358,7 +9358,7 @@
       <c r="Z170" s="4"/>
       <c r="AA170" s="4"/>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:27">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -9387,7 +9387,7 @@
       <c r="Z171" s="4"/>
       <c r="AA171" s="4"/>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -9416,7 +9416,7 @@
       <c r="Z172" s="4"/>
       <c r="AA172" s="4"/>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:27">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -9445,7 +9445,7 @@
       <c r="Z173" s="4"/>
       <c r="AA173" s="4"/>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -9474,7 +9474,7 @@
       <c r="Z174" s="4"/>
       <c r="AA174" s="4"/>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:27">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -9503,7 +9503,7 @@
       <c r="Z175" s="4"/>
       <c r="AA175" s="4"/>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:27">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -9532,7 +9532,7 @@
       <c r="Z176" s="4"/>
       <c r="AA176" s="4"/>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:27">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -9561,7 +9561,7 @@
       <c r="Z177" s="4"/>
       <c r="AA177" s="4"/>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -9590,7 +9590,7 @@
       <c r="Z178" s="4"/>
       <c r="AA178" s="4"/>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -9619,7 +9619,7 @@
       <c r="Z179" s="4"/>
       <c r="AA179" s="4"/>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -9648,7 +9648,7 @@
       <c r="Z180" s="4"/>
       <c r="AA180" s="4"/>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -9677,7 +9677,7 @@
       <c r="Z181" s="4"/>
       <c r="AA181" s="4"/>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:27">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -9706,7 +9706,7 @@
       <c r="Z182" s="4"/>
       <c r="AA182" s="4"/>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -9735,7 +9735,7 @@
       <c r="Z183" s="4"/>
       <c r="AA183" s="4"/>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -9764,7 +9764,7 @@
       <c r="Z184" s="4"/>
       <c r="AA184" s="4"/>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:27">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -9793,7 +9793,7 @@
       <c r="Z185" s="4"/>
       <c r="AA185" s="4"/>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:27">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -9822,7 +9822,7 @@
       <c r="Z186" s="4"/>
       <c r="AA186" s="4"/>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:27">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -9851,7 +9851,7 @@
       <c r="Z187" s="4"/>
       <c r="AA187" s="4"/>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:27">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -9880,7 +9880,7 @@
       <c r="Z188" s="4"/>
       <c r="AA188" s="4"/>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:27">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -9909,7 +9909,7 @@
       <c r="Z189" s="4"/>
       <c r="AA189" s="4"/>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:27">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -9938,7 +9938,7 @@
       <c r="Z190" s="4"/>
       <c r="AA190" s="4"/>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:27">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -9967,7 +9967,7 @@
       <c r="Z191" s="4"/>
       <c r="AA191" s="4"/>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -9996,7 +9996,7 @@
       <c r="Z192" s="4"/>
       <c r="AA192" s="4"/>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:27">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -10025,7 +10025,7 @@
       <c r="Z193" s="4"/>
       <c r="AA193" s="4"/>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:27">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -10054,7 +10054,7 @@
       <c r="Z194" s="4"/>
       <c r="AA194" s="4"/>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:27">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -10083,7 +10083,7 @@
       <c r="Z195" s="4"/>
       <c r="AA195" s="4"/>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:27">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -10112,7 +10112,7 @@
       <c r="Z196" s="4"/>
       <c r="AA196" s="4"/>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:27">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -10141,7 +10141,7 @@
       <c r="Z197" s="4"/>
       <c r="AA197" s="4"/>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:27">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -10170,7 +10170,7 @@
       <c r="Z198" s="4"/>
       <c r="AA198" s="4"/>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:27">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -10199,7 +10199,7 @@
       <c r="Z199" s="4"/>
       <c r="AA199" s="4"/>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:27">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -10228,7 +10228,7 @@
       <c r="Z200" s="4"/>
       <c r="AA200" s="4"/>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:27">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -10257,7 +10257,7 @@
       <c r="Z201" s="4"/>
       <c r="AA201" s="4"/>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:27">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -10286,7 +10286,7 @@
       <c r="Z202" s="4"/>
       <c r="AA202" s="4"/>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:27">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -10315,7 +10315,7 @@
       <c r="Z203" s="4"/>
       <c r="AA203" s="4"/>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:27">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -10344,7 +10344,7 @@
       <c r="Z204" s="4"/>
       <c r="AA204" s="4"/>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:27">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -10373,7 +10373,7 @@
       <c r="Z205" s="4"/>
       <c r="AA205" s="4"/>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:27">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -10402,7 +10402,7 @@
       <c r="Z206" s="4"/>
       <c r="AA206" s="4"/>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:27">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -10431,7 +10431,7 @@
       <c r="Z207" s="4"/>
       <c r="AA207" s="4"/>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:27">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -10460,7 +10460,7 @@
       <c r="Z208" s="4"/>
       <c r="AA208" s="4"/>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:27">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -10489,7 +10489,7 @@
       <c r="Z209" s="4"/>
       <c r="AA209" s="4"/>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:27">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -10518,7 +10518,7 @@
       <c r="Z210" s="4"/>
       <c r="AA210" s="4"/>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:27">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -10547,7 +10547,7 @@
       <c r="Z211" s="4"/>
       <c r="AA211" s="4"/>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:27">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -10576,7 +10576,7 @@
       <c r="Z212" s="4"/>
       <c r="AA212" s="4"/>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:27">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -10605,7 +10605,7 @@
       <c r="Z213" s="4"/>
       <c r="AA213" s="4"/>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:27">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -10634,7 +10634,7 @@
       <c r="Z214" s="4"/>
       <c r="AA214" s="4"/>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:27">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -10663,7 +10663,7 @@
       <c r="Z215" s="4"/>
       <c r="AA215" s="4"/>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:27">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -10692,7 +10692,7 @@
       <c r="Z216" s="4"/>
       <c r="AA216" s="4"/>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:27">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -10721,7 +10721,7 @@
       <c r="Z217" s="4"/>
       <c r="AA217" s="4"/>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:27">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -10750,7 +10750,7 @@
       <c r="Z218" s="4"/>
       <c r="AA218" s="4"/>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:27">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -10779,7 +10779,7 @@
       <c r="Z219" s="4"/>
       <c r="AA219" s="4"/>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:27">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -10808,7 +10808,7 @@
       <c r="Z220" s="4"/>
       <c r="AA220" s="4"/>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:27">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -10837,7 +10837,7 @@
       <c r="Z221" s="4"/>
       <c r="AA221" s="4"/>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:27">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -10866,7 +10866,7 @@
       <c r="Z222" s="4"/>
       <c r="AA222" s="4"/>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:27">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -10895,7 +10895,7 @@
       <c r="Z223" s="4"/>
       <c r="AA223" s="4"/>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:27">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -10924,7 +10924,7 @@
       <c r="Z224" s="4"/>
       <c r="AA224" s="4"/>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:27">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -10953,7 +10953,7 @@
       <c r="Z225" s="4"/>
       <c r="AA225" s="4"/>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:27">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -10982,7 +10982,7 @@
       <c r="Z226" s="4"/>
       <c r="AA226" s="4"/>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:27">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -11011,7 +11011,7 @@
       <c r="Z227" s="4"/>
       <c r="AA227" s="4"/>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:27">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -11040,7 +11040,7 @@
       <c r="Z228" s="4"/>
       <c r="AA228" s="4"/>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:27">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -11069,7 +11069,7 @@
       <c r="Z229" s="4"/>
       <c r="AA229" s="4"/>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:27">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -11098,7 +11098,7 @@
       <c r="Z230" s="4"/>
       <c r="AA230" s="4"/>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:27">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -11127,7 +11127,7 @@
       <c r="Z231" s="4"/>
       <c r="AA231" s="4"/>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:27">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -11156,7 +11156,7 @@
       <c r="Z232" s="4"/>
       <c r="AA232" s="4"/>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:27">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -11185,7 +11185,7 @@
       <c r="Z233" s="4"/>
       <c r="AA233" s="4"/>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:27">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -11214,7 +11214,7 @@
       <c r="Z234" s="4"/>
       <c r="AA234" s="4"/>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:27">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -11243,7 +11243,7 @@
       <c r="Z235" s="4"/>
       <c r="AA235" s="4"/>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:27">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -11272,7 +11272,7 @@
       <c r="Z236" s="4"/>
       <c r="AA236" s="4"/>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:27">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -11301,7 +11301,7 @@
       <c r="Z237" s="4"/>
       <c r="AA237" s="4"/>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:27">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -11330,7 +11330,7 @@
       <c r="Z238" s="4"/>
       <c r="AA238" s="4"/>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:27">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -11359,7 +11359,7 @@
       <c r="Z239" s="4"/>
       <c r="AA239" s="4"/>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:27">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -11388,7 +11388,7 @@
       <c r="Z240" s="4"/>
       <c r="AA240" s="4"/>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:27">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -11417,7 +11417,7 @@
       <c r="Z241" s="4"/>
       <c r="AA241" s="4"/>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:27">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -11446,7 +11446,7 @@
       <c r="Z242" s="4"/>
       <c r="AA242" s="4"/>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:27">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -11475,7 +11475,7 @@
       <c r="Z243" s="4"/>
       <c r="AA243" s="4"/>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:27">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -11504,7 +11504,7 @@
       <c r="Z244" s="4"/>
       <c r="AA244" s="4"/>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:27">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -11533,7 +11533,7 @@
       <c r="Z245" s="4"/>
       <c r="AA245" s="4"/>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:27">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -11562,7 +11562,7 @@
       <c r="Z246" s="4"/>
       <c r="AA246" s="4"/>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:27">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -11591,7 +11591,7 @@
       <c r="Z247" s="4"/>
       <c r="AA247" s="4"/>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:27">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -11620,7 +11620,7 @@
       <c r="Z248" s="4"/>
       <c r="AA248" s="4"/>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:27">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -11649,7 +11649,7 @@
       <c r="Z249" s="4"/>
       <c r="AA249" s="4"/>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:27">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -11678,7 +11678,7 @@
       <c r="Z250" s="4"/>
       <c r="AA250" s="4"/>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:27">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -11707,7 +11707,7 @@
       <c r="Z251" s="4"/>
       <c r="AA251" s="4"/>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:27">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -11736,7 +11736,7 @@
       <c r="Z252" s="4"/>
       <c r="AA252" s="4"/>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:27">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -11765,7 +11765,7 @@
       <c r="Z253" s="4"/>
       <c r="AA253" s="4"/>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:27">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -11794,7 +11794,7 @@
       <c r="Z254" s="4"/>
       <c r="AA254" s="4"/>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:27">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -11823,7 +11823,7 @@
       <c r="Z255" s="4"/>
       <c r="AA255" s="4"/>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:27">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -11852,7 +11852,7 @@
       <c r="Z256" s="4"/>
       <c r="AA256" s="4"/>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:27">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -11881,7 +11881,7 @@
       <c r="Z257" s="4"/>
       <c r="AA257" s="4"/>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:27">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -11910,7 +11910,7 @@
       <c r="Z258" s="4"/>
       <c r="AA258" s="4"/>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:27">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -11939,7 +11939,7 @@
       <c r="Z259" s="4"/>
       <c r="AA259" s="4"/>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:27">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -11968,7 +11968,7 @@
       <c r="Z260" s="4"/>
       <c r="AA260" s="4"/>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:27">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -11997,7 +11997,7 @@
       <c r="Z261" s="4"/>
       <c r="AA261" s="4"/>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:27">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -12026,7 +12026,7 @@
       <c r="Z262" s="4"/>
       <c r="AA262" s="4"/>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:27">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -12055,7 +12055,7 @@
       <c r="Z263" s="4"/>
       <c r="AA263" s="4"/>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:27">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -12084,7 +12084,7 @@
       <c r="Z264" s="4"/>
       <c r="AA264" s="4"/>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:27">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -12113,7 +12113,7 @@
       <c r="Z265" s="4"/>
       <c r="AA265" s="4"/>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:27">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -12142,7 +12142,7 @@
       <c r="Z266" s="4"/>
       <c r="AA266" s="4"/>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:27">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -12171,7 +12171,7 @@
       <c r="Z267" s="4"/>
       <c r="AA267" s="4"/>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:27">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -12200,7 +12200,7 @@
       <c r="Z268" s="4"/>
       <c r="AA268" s="4"/>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:27">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -12229,7 +12229,7 @@
       <c r="Z269" s="4"/>
       <c r="AA269" s="4"/>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:27">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -12258,7 +12258,7 @@
       <c r="Z270" s="4"/>
       <c r="AA270" s="4"/>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:27">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -12287,7 +12287,7 @@
       <c r="Z271" s="4"/>
       <c r="AA271" s="4"/>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:27">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -12316,7 +12316,7 @@
       <c r="Z272" s="4"/>
       <c r="AA272" s="4"/>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:27">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -12345,7 +12345,7 @@
       <c r="Z273" s="4"/>
       <c r="AA273" s="4"/>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:27">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -12374,7 +12374,7 @@
       <c r="Z274" s="4"/>
       <c r="AA274" s="4"/>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:27">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -12403,7 +12403,7 @@
       <c r="Z275" s="4"/>
       <c r="AA275" s="4"/>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:27">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -12432,7 +12432,7 @@
       <c r="Z276" s="4"/>
       <c r="AA276" s="4"/>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:27">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -12461,7 +12461,7 @@
       <c r="Z277" s="4"/>
       <c r="AA277" s="4"/>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:27">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -12490,7 +12490,7 @@
       <c r="Z278" s="4"/>
       <c r="AA278" s="4"/>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:27">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -12519,7 +12519,7 @@
       <c r="Z279" s="4"/>
       <c r="AA279" s="4"/>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:27">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -12566,7 +12566,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12578,7 +12578,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\Github\Biotility\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="25875" windowHeight="11760"/>
+    <workbookView xWindow="360" yWindow="108" windowWidth="25872" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -586,12 +591,6 @@
   </si>
   <si>
     <t>http://www.diffen.com/difference/Aerobic_Respiration_vs_Anaerobic_Respiration</t>
-  </si>
-  <si>
-    <t>Most ATP in eukaryotic cells is produced in the:</t>
-  </si>
-  <si>
-    <t>Miotochondria</t>
   </si>
   <si>
     <t>Rough endoplasmic reticulum</t>
@@ -2050,12 +2049,18 @@
   <si>
     <t>http://www.bioprocessintl.com/analytical/product-characterization/building-a-robust-bioassay-for-product-potency-measurement/</t>
   </si>
+  <si>
+    <t>Mitochondria</t>
+  </si>
+  <si>
+    <t>Test Question Text</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2781,6 +2786,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3114,41 +3122,41 @@
   <dimension ref="A1:AA280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.09765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.8984375" style="1" customWidth="1"/>
     <col min="9" max="9" width="21" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="20.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.8984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.69921875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="20.8984375" style="1" customWidth="1"/>
     <col min="15" max="15" width="26" style="1" customWidth="1"/>
-    <col min="16" max="16" width="39.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="39.59765625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.09765625" style="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="11.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" style="1" customWidth="1"/>
-    <col min="26" max="27" width="12.28515625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="9.09765625" style="1"/>
+    <col min="20" max="20" width="11.59765625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.3984375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.8984375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.59765625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="13.59765625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.3984375" style="1" customWidth="1"/>
+    <col min="26" max="27" width="12.296875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3177,19 +3185,19 @@
         <v>6</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="N1" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>49</v>
@@ -3231,21 +3239,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="27.6">
       <c r="A2" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>131</v>
+        <v>383</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>132</v>
+        <v>382</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -3254,10 +3262,10 @@
         <v>24</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -3265,10 +3273,10 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
@@ -3282,7 +3290,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="75">
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
@@ -3331,7 +3339,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="45">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
@@ -3380,7 +3388,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="30">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -3429,7 +3437,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="30">
       <c r="A6" s="5" t="s">
         <v>55</v>
       </c>
@@ -3478,7 +3486,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="45">
       <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
@@ -3529,7 +3537,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="60">
       <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
@@ -3578,7 +3586,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="54.75" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
@@ -3627,7 +3635,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="31.5">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -3674,7 +3682,7 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="55.2">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -3682,40 +3690,40 @@
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>147</v>
-      </c>
       <c r="L11" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
@@ -3729,7 +3737,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="90">
       <c r="A12" s="5" t="s">
         <v>55</v>
       </c>
@@ -3737,41 +3745,41 @@
         <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="M12" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="O12" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -3786,7 +3794,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="82.8">
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
@@ -3794,22 +3802,22 @@
         <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D13" s="5">
         <v>4</v>
       </c>
       <c r="E13" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>194</v>
-      </c>
       <c r="H13" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -3818,10 +3826,10 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -3835,7 +3843,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="55.2">
       <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
@@ -3843,22 +3851,22 @@
         <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D14" s="5">
         <v>2</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -3867,10 +3875,10 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -3884,7 +3892,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" ht="33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="30">
       <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
@@ -3892,22 +3900,22 @@
         <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="G15" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -3916,10 +3924,10 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
@@ -3933,7 +3941,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" ht="36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="32.4">
       <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
@@ -3941,22 +3949,22 @@
         <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D16" s="5">
         <v>3</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -3965,10 +3973,10 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
@@ -3982,7 +3990,7 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="27.6">
       <c r="A17" s="5" t="s">
         <v>55</v>
       </c>
@@ -3990,10 +3998,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -4006,10 +4014,10 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
@@ -4023,7 +4031,7 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="27.6">
       <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
@@ -4031,7 +4039,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>21</v>
@@ -4047,10 +4055,10 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
@@ -4064,7 +4072,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="41.4">
       <c r="A19" s="5" t="s">
         <v>55</v>
       </c>
@@ -4072,7 +4080,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>21</v>
@@ -4088,10 +4096,10 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
@@ -4105,7 +4113,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="27.6">
       <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
@@ -4113,10 +4121,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -4129,10 +4137,10 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
@@ -4146,7 +4154,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="41.4">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
@@ -4195,7 +4203,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="41.4">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -4203,23 +4211,23 @@
         <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>354</v>
       </c>
       <c r="J22" s="5">
         <v>2</v>
@@ -4237,10 +4245,10 @@
         <v>3</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
@@ -4254,7 +4262,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="41.4">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -4262,7 +4270,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>21</v>
@@ -4278,10 +4286,10 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -4295,7 +4303,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="41.4">
       <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
@@ -4303,25 +4311,25 @@
         <v>18</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D24" s="5">
         <v>4</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -4329,10 +4337,10 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -4346,7 +4354,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="41.4">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -4354,7 +4362,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
@@ -4369,10 +4377,10 @@
         <v>99</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -4380,10 +4388,10 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -4397,7 +4405,7 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="41.4">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
@@ -4405,7 +4413,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D26" s="5">
         <v>2</v>
@@ -4420,10 +4428,10 @@
         <v>99</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -4431,10 +4439,10 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
@@ -4448,7 +4456,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="41.4">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
@@ -4456,7 +4464,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D27" s="5">
         <v>5</v>
@@ -4471,10 +4479,10 @@
         <v>99</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -4482,10 +4490,10 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
@@ -4499,7 +4507,7 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="41.4">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
@@ -4507,7 +4515,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>21</v>
@@ -4523,10 +4531,10 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
@@ -4540,7 +4548,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="41.4">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -4548,22 +4556,22 @@
         <v>18</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D29" s="5">
         <v>4</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="5" t="s">
         <v>377</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>379</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -4572,10 +4580,10 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
@@ -4589,7 +4597,7 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="27.6">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -4597,10 +4605,10 @@
         <v>20</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -4613,10 +4621,10 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
@@ -4630,7 +4638,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="27.6">
       <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
@@ -4638,7 +4646,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>21</v>
@@ -4654,10 +4662,10 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
@@ -4671,7 +4679,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="69">
       <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
@@ -4679,7 +4687,7 @@
         <v>20</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>21</v>
@@ -4695,10 +4703,10 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
@@ -4712,7 +4720,7 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="69">
       <c r="A33" s="5" t="s">
         <v>28</v>
       </c>
@@ -4720,10 +4728,10 @@
         <v>20</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -4736,10 +4744,10 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
@@ -4753,7 +4761,7 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="55.2">
       <c r="A34" s="5" t="s">
         <v>28</v>
       </c>
@@ -4761,7 +4769,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>21</v>
@@ -4777,10 +4785,10 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
@@ -4794,7 +4802,7 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="41.4">
       <c r="A35" s="5" t="s">
         <v>40</v>
       </c>
@@ -4843,7 +4851,7 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:27" ht="210" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="193.2">
       <c r="A36" s="5" t="s">
         <v>64</v>
       </c>
@@ -4892,7 +4900,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:27" ht="135" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="111">
       <c r="A37" s="5" t="s">
         <v>64</v>
       </c>
@@ -4900,20 +4908,20 @@
         <v>18</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4">
@@ -4930,10 +4938,10 @@
       </c>
       <c r="N37" s="5"/>
       <c r="O37" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
@@ -4947,7 +4955,7 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="41.4">
       <c r="A38" s="5" t="s">
         <v>64</v>
       </c>
@@ -4996,7 +5004,7 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="41.4">
       <c r="A39" s="5" t="s">
         <v>64</v>
       </c>
@@ -5045,7 +5053,7 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="41.4">
       <c r="A40" s="5" t="s">
         <v>64</v>
       </c>
@@ -5094,7 +5102,7 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="1:27" ht="120" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="96.6">
       <c r="A41" s="5" t="s">
         <v>64</v>
       </c>
@@ -5102,36 +5110,36 @@
         <v>18</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L41" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
@@ -5145,7 +5153,7 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
     </row>
-    <row r="42" spans="1:27" ht="120" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" ht="110.4">
       <c r="A42" s="5" t="s">
         <v>64</v>
       </c>
@@ -5153,37 +5161,37 @@
         <v>18</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F42" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H42" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="L42" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="M42" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
@@ -5198,7 +5206,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27" ht="120" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" ht="96.6">
       <c r="A43" s="5" t="s">
         <v>64</v>
       </c>
@@ -5206,36 +5214,36 @@
         <v>18</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
@@ -5249,7 +5257,7 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" spans="1:27" ht="135" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" ht="110.4">
       <c r="A44" s="5" t="s">
         <v>64</v>
       </c>
@@ -5257,40 +5265,40 @@
         <v>18</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L44" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="M44" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="N44" s="5"/>
       <c r="O44" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
@@ -5304,30 +5312,30 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
     </row>
-    <row r="45" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" ht="41.4">
       <c r="A45" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -5336,10 +5344,10 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
@@ -5353,30 +5361,30 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="27.6">
       <c r="A46" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D46" s="5">
         <v>4</v>
       </c>
       <c r="E46" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="H46" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -5385,10 +5393,10 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
@@ -5402,30 +5410,30 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" ht="27.6">
       <c r="A47" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D47" s="5">
         <v>2</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F47" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -5434,10 +5442,10 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
@@ -5451,30 +5459,30 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" ht="27.6">
       <c r="A48" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D48" s="5">
         <v>3</v>
       </c>
       <c r="E48" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -5483,10 +5491,10 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
@@ -5500,30 +5508,30 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" ht="27.6">
       <c r="A49" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D49" s="5">
         <v>1</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -5532,10 +5540,10 @@
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
@@ -5549,30 +5557,30 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
     </row>
-    <row r="50" spans="1:27" ht="45" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" ht="32.4">
       <c r="A50" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D50" s="5">
         <v>4</v>
       </c>
       <c r="E50" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -5581,10 +5589,10 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
@@ -5598,30 +5606,30 @@
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
     </row>
-    <row r="51" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" ht="27.6">
       <c r="A51" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D51" s="5">
         <v>2</v>
       </c>
       <c r="E51" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="H51" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -5630,10 +5638,10 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
@@ -5647,30 +5655,30 @@
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
     </row>
-    <row r="52" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" ht="27.6">
       <c r="A52" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D52" s="5">
         <v>3</v>
       </c>
       <c r="E52" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -5679,10 +5687,10 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
@@ -5696,30 +5704,30 @@
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
     </row>
-    <row r="53" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" ht="27.6">
       <c r="A53" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D53" s="5">
         <v>4</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
@@ -5728,10 +5736,10 @@
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
@@ -5745,30 +5753,30 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
     </row>
-    <row r="54" spans="1:27" ht="66" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="48.6">
       <c r="A54" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D54" s="5">
         <v>4</v>
       </c>
       <c r="E54" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>263</v>
-      </c>
       <c r="H54" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
@@ -5777,10 +5785,10 @@
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
@@ -5794,30 +5802,30 @@
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
     </row>
-    <row r="55" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="27.6">
       <c r="A55" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D55" s="5">
         <v>2</v>
       </c>
       <c r="E55" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="H55" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
@@ -5826,10 +5834,10 @@
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
@@ -5843,30 +5851,30 @@
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
     </row>
-    <row r="56" spans="1:27" ht="36" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:27" ht="32.4">
       <c r="A56" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D56" s="5">
         <v>1</v>
       </c>
       <c r="E56" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="H56" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>285</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -5875,10 +5883,10 @@
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
@@ -5892,30 +5900,30 @@
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
     </row>
-    <row r="57" spans="1:27" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" ht="42.6">
       <c r="A57" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D57" s="5">
         <v>3</v>
       </c>
       <c r="E57" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H57" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>290</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
@@ -5924,10 +5932,10 @@
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
@@ -5941,30 +5949,30 @@
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
     </row>
-    <row r="58" spans="1:27" ht="51" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:27" ht="46.2">
       <c r="A58" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D58" s="5">
         <v>2</v>
       </c>
       <c r="E58" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="H58" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>294</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -5973,10 +5981,10 @@
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
@@ -5990,30 +5998,30 @@
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
     </row>
-    <row r="59" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" ht="60.75" customHeight="1">
       <c r="A59" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D59" s="5">
         <v>4</v>
       </c>
       <c r="E59" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>300</v>
-      </c>
       <c r="G59" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -6022,10 +6030,10 @@
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
@@ -6039,30 +6047,30 @@
       <c r="Z59" s="5"/>
       <c r="AA59" s="5"/>
     </row>
-    <row r="60" spans="1:27" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:27" ht="67.5" customHeight="1">
       <c r="A60" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D60" s="5">
         <v>3</v>
       </c>
       <c r="E60" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H60" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>306</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
@@ -6071,10 +6079,10 @@
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
@@ -6088,30 +6096,30 @@
       <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
     </row>
-    <row r="61" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:27" ht="60.75" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D61" s="5">
         <v>2</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
@@ -6120,10 +6128,10 @@
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
@@ -6137,31 +6145,31 @@
       <c r="Z61" s="5"/>
       <c r="AA61" s="5"/>
     </row>
-    <row r="62" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="69">
       <c r="A62" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="H62" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="I62" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>316</v>
       </c>
       <c r="J62" s="5">
         <v>4</v>
@@ -6179,10 +6187,10 @@
         <v>3</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
@@ -6196,44 +6204,44 @@
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
     </row>
-    <row r="63" spans="1:27" ht="126" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="120">
       <c r="A63" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="G63" s="15" t="s">
         <v>317</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>319</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L63" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M63" s="11"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
@@ -6247,7 +6255,7 @@
       <c r="Z63" s="5"/>
       <c r="AA63" s="5"/>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -6276,7 +6284,7 @@
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -6305,7 +6313,7 @@
       <c r="Z65" s="5"/>
       <c r="AA65" s="5"/>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -6334,7 +6342,7 @@
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -6363,7 +6371,7 @@
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -6392,7 +6400,7 @@
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -6421,7 +6429,7 @@
       <c r="Z69" s="5"/>
       <c r="AA69" s="5"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -6450,7 +6458,7 @@
       <c r="Z70" s="5"/>
       <c r="AA70" s="5"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -6479,7 +6487,7 @@
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -6508,7 +6516,7 @@
       <c r="Z72" s="5"/>
       <c r="AA72" s="5"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -6537,7 +6545,7 @@
       <c r="Z73" s="5"/>
       <c r="AA73" s="5"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -6566,7 +6574,7 @@
       <c r="Z74" s="5"/>
       <c r="AA74" s="5"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -6595,7 +6603,7 @@
       <c r="Z75" s="5"/>
       <c r="AA75" s="5"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -6624,7 +6632,7 @@
       <c r="Z76" s="5"/>
       <c r="AA76" s="5"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -6653,7 +6661,7 @@
       <c r="Z77" s="5"/>
       <c r="AA77" s="5"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -6682,7 +6690,7 @@
       <c r="Z78" s="5"/>
       <c r="AA78" s="5"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -6711,7 +6719,7 @@
       <c r="Z79" s="5"/>
       <c r="AA79" s="5"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -6740,7 +6748,7 @@
       <c r="Z80" s="5"/>
       <c r="AA80" s="5"/>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -6769,7 +6777,7 @@
       <c r="Z81" s="4"/>
       <c r="AA81" s="4"/>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -6798,7 +6806,7 @@
       <c r="Z82" s="4"/>
       <c r="AA82" s="4"/>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -6827,7 +6835,7 @@
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -6856,7 +6864,7 @@
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -6885,7 +6893,7 @@
       <c r="Z85" s="4"/>
       <c r="AA85" s="4"/>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -6914,7 +6922,7 @@
       <c r="Z86" s="4"/>
       <c r="AA86" s="4"/>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -6943,7 +6951,7 @@
       <c r="Z87" s="4"/>
       <c r="AA87" s="4"/>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -6972,7 +6980,7 @@
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -7001,7 +7009,7 @@
       <c r="Z89" s="4"/>
       <c r="AA89" s="4"/>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -7030,7 +7038,7 @@
       <c r="Z90" s="4"/>
       <c r="AA90" s="4"/>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -7059,7 +7067,7 @@
       <c r="Z91" s="4"/>
       <c r="AA91" s="4"/>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -7088,7 +7096,7 @@
       <c r="Z92" s="4"/>
       <c r="AA92" s="4"/>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -7117,7 +7125,7 @@
       <c r="Z93" s="4"/>
       <c r="AA93" s="4"/>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -7146,7 +7154,7 @@
       <c r="Z94" s="4"/>
       <c r="AA94" s="4"/>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -7175,7 +7183,7 @@
       <c r="Z95" s="4"/>
       <c r="AA95" s="4"/>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -7204,7 +7212,7 @@
       <c r="Z96" s="4"/>
       <c r="AA96" s="4"/>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -7233,7 +7241,7 @@
       <c r="Z97" s="4"/>
       <c r="AA97" s="4"/>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -7262,7 +7270,7 @@
       <c r="Z98" s="4"/>
       <c r="AA98" s="4"/>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -7291,7 +7299,7 @@
       <c r="Z99" s="4"/>
       <c r="AA99" s="4"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -7320,7 +7328,7 @@
       <c r="Z100" s="4"/>
       <c r="AA100" s="4"/>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -7349,7 +7357,7 @@
       <c r="Z101" s="4"/>
       <c r="AA101" s="4"/>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -7378,7 +7386,7 @@
       <c r="Z102" s="4"/>
       <c r="AA102" s="4"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -7407,7 +7415,7 @@
       <c r="Z103" s="4"/>
       <c r="AA103" s="4"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -7436,7 +7444,7 @@
       <c r="Z104" s="4"/>
       <c r="AA104" s="4"/>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -7465,7 +7473,7 @@
       <c r="Z105" s="4"/>
       <c r="AA105" s="4"/>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -7494,7 +7502,7 @@
       <c r="Z106" s="4"/>
       <c r="AA106" s="4"/>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -7523,7 +7531,7 @@
       <c r="Z107" s="4"/>
       <c r="AA107" s="4"/>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -7552,7 +7560,7 @@
       <c r="Z108" s="4"/>
       <c r="AA108" s="4"/>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -7581,7 +7589,7 @@
       <c r="Z109" s="4"/>
       <c r="AA109" s="4"/>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -7610,7 +7618,7 @@
       <c r="Z110" s="4"/>
       <c r="AA110" s="4"/>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -7639,7 +7647,7 @@
       <c r="Z111" s="4"/>
       <c r="AA111" s="4"/>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -7668,7 +7676,7 @@
       <c r="Z112" s="4"/>
       <c r="AA112" s="4"/>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -7697,7 +7705,7 @@
       <c r="Z113" s="4"/>
       <c r="AA113" s="4"/>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -7726,7 +7734,7 @@
       <c r="Z114" s="4"/>
       <c r="AA114" s="4"/>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -7755,7 +7763,7 @@
       <c r="Z115" s="4"/>
       <c r="AA115" s="4"/>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -7784,7 +7792,7 @@
       <c r="Z116" s="4"/>
       <c r="AA116" s="4"/>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -7813,7 +7821,7 @@
       <c r="Z117" s="4"/>
       <c r="AA117" s="4"/>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -7842,7 +7850,7 @@
       <c r="Z118" s="4"/>
       <c r="AA118" s="4"/>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -7871,7 +7879,7 @@
       <c r="Z119" s="4"/>
       <c r="AA119" s="4"/>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -7900,7 +7908,7 @@
       <c r="Z120" s="4"/>
       <c r="AA120" s="4"/>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -7929,7 +7937,7 @@
       <c r="Z121" s="4"/>
       <c r="AA121" s="4"/>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -7958,7 +7966,7 @@
       <c r="Z122" s="4"/>
       <c r="AA122" s="4"/>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -7987,7 +7995,7 @@
       <c r="Z123" s="4"/>
       <c r="AA123" s="4"/>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -8016,7 +8024,7 @@
       <c r="Z124" s="4"/>
       <c r="AA124" s="4"/>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -8045,7 +8053,7 @@
       <c r="Z125" s="4"/>
       <c r="AA125" s="4"/>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -8074,7 +8082,7 @@
       <c r="Z126" s="4"/>
       <c r="AA126" s="4"/>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -8103,7 +8111,7 @@
       <c r="Z127" s="4"/>
       <c r="AA127" s="4"/>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -8132,7 +8140,7 @@
       <c r="Z128" s="4"/>
       <c r="AA128" s="4"/>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -8161,7 +8169,7 @@
       <c r="Z129" s="4"/>
       <c r="AA129" s="4"/>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -8190,7 +8198,7 @@
       <c r="Z130" s="4"/>
       <c r="AA130" s="4"/>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -8219,7 +8227,7 @@
       <c r="Z131" s="4"/>
       <c r="AA131" s="4"/>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -8248,7 +8256,7 @@
       <c r="Z132" s="4"/>
       <c r="AA132" s="4"/>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -8277,7 +8285,7 @@
       <c r="Z133" s="4"/>
       <c r="AA133" s="4"/>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -8306,7 +8314,7 @@
       <c r="Z134" s="4"/>
       <c r="AA134" s="4"/>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -8335,7 +8343,7 @@
       <c r="Z135" s="4"/>
       <c r="AA135" s="4"/>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -8364,7 +8372,7 @@
       <c r="Z136" s="4"/>
       <c r="AA136" s="4"/>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -8393,7 +8401,7 @@
       <c r="Z137" s="4"/>
       <c r="AA137" s="4"/>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -8422,7 +8430,7 @@
       <c r="Z138" s="4"/>
       <c r="AA138" s="4"/>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -8451,7 +8459,7 @@
       <c r="Z139" s="4"/>
       <c r="AA139" s="4"/>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -8480,7 +8488,7 @@
       <c r="Z140" s="4"/>
       <c r="AA140" s="4"/>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -8509,7 +8517,7 @@
       <c r="Z141" s="4"/>
       <c r="AA141" s="4"/>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -8538,7 +8546,7 @@
       <c r="Z142" s="4"/>
       <c r="AA142" s="4"/>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -8567,7 +8575,7 @@
       <c r="Z143" s="4"/>
       <c r="AA143" s="4"/>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -8596,7 +8604,7 @@
       <c r="Z144" s="4"/>
       <c r="AA144" s="4"/>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -8625,7 +8633,7 @@
       <c r="Z145" s="4"/>
       <c r="AA145" s="4"/>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -8654,7 +8662,7 @@
       <c r="Z146" s="4"/>
       <c r="AA146" s="4"/>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -8683,7 +8691,7 @@
       <c r="Z147" s="4"/>
       <c r="AA147" s="4"/>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -8712,7 +8720,7 @@
       <c r="Z148" s="4"/>
       <c r="AA148" s="4"/>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -8741,7 +8749,7 @@
       <c r="Z149" s="4"/>
       <c r="AA149" s="4"/>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -8770,7 +8778,7 @@
       <c r="Z150" s="4"/>
       <c r="AA150" s="4"/>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -8799,7 +8807,7 @@
       <c r="Z151" s="4"/>
       <c r="AA151" s="4"/>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -8828,7 +8836,7 @@
       <c r="Z152" s="4"/>
       <c r="AA152" s="4"/>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -8857,7 +8865,7 @@
       <c r="Z153" s="4"/>
       <c r="AA153" s="4"/>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -8886,7 +8894,7 @@
       <c r="Z154" s="4"/>
       <c r="AA154" s="4"/>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -8915,7 +8923,7 @@
       <c r="Z155" s="4"/>
       <c r="AA155" s="4"/>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -8944,7 +8952,7 @@
       <c r="Z156" s="4"/>
       <c r="AA156" s="4"/>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -8973,7 +8981,7 @@
       <c r="Z157" s="4"/>
       <c r="AA157" s="4"/>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -9002,7 +9010,7 @@
       <c r="Z158" s="4"/>
       <c r="AA158" s="4"/>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:27">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -9031,7 +9039,7 @@
       <c r="Z159" s="4"/>
       <c r="AA159" s="4"/>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -9060,7 +9068,7 @@
       <c r="Z160" s="4"/>
       <c r="AA160" s="4"/>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -9089,7 +9097,7 @@
       <c r="Z161" s="4"/>
       <c r="AA161" s="4"/>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -9118,7 +9126,7 @@
       <c r="Z162" s="4"/>
       <c r="AA162" s="4"/>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -9147,7 +9155,7 @@
       <c r="Z163" s="4"/>
       <c r="AA163" s="4"/>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -9176,7 +9184,7 @@
       <c r="Z164" s="4"/>
       <c r="AA164" s="4"/>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -9205,7 +9213,7 @@
       <c r="Z165" s="4"/>
       <c r="AA165" s="4"/>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -9234,7 +9242,7 @@
       <c r="Z166" s="4"/>
       <c r="AA166" s="4"/>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -9263,7 +9271,7 @@
       <c r="Z167" s="4"/>
       <c r="AA167" s="4"/>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:27">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -9292,7 +9300,7 @@
       <c r="Z168" s="4"/>
       <c r="AA168" s="4"/>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:27">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -9321,7 +9329,7 @@
       <c r="Z169" s="4"/>
       <c r="AA169" s="4"/>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -9350,7 +9358,7 @@
       <c r="Z170" s="4"/>
       <c r="AA170" s="4"/>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:27">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -9379,7 +9387,7 @@
       <c r="Z171" s="4"/>
       <c r="AA171" s="4"/>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -9408,7 +9416,7 @@
       <c r="Z172" s="4"/>
       <c r="AA172" s="4"/>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:27">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -9437,7 +9445,7 @@
       <c r="Z173" s="4"/>
       <c r="AA173" s="4"/>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -9466,7 +9474,7 @@
       <c r="Z174" s="4"/>
       <c r="AA174" s="4"/>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:27">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -9495,7 +9503,7 @@
       <c r="Z175" s="4"/>
       <c r="AA175" s="4"/>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:27">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -9524,7 +9532,7 @@
       <c r="Z176" s="4"/>
       <c r="AA176" s="4"/>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:27">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -9553,7 +9561,7 @@
       <c r="Z177" s="4"/>
       <c r="AA177" s="4"/>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -9582,7 +9590,7 @@
       <c r="Z178" s="4"/>
       <c r="AA178" s="4"/>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -9611,7 +9619,7 @@
       <c r="Z179" s="4"/>
       <c r="AA179" s="4"/>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -9640,7 +9648,7 @@
       <c r="Z180" s="4"/>
       <c r="AA180" s="4"/>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -9669,7 +9677,7 @@
       <c r="Z181" s="4"/>
       <c r="AA181" s="4"/>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:27">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -9698,7 +9706,7 @@
       <c r="Z182" s="4"/>
       <c r="AA182" s="4"/>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -9727,7 +9735,7 @@
       <c r="Z183" s="4"/>
       <c r="AA183" s="4"/>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -9756,7 +9764,7 @@
       <c r="Z184" s="4"/>
       <c r="AA184" s="4"/>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:27">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -9785,7 +9793,7 @@
       <c r="Z185" s="4"/>
       <c r="AA185" s="4"/>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:27">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -9814,7 +9822,7 @@
       <c r="Z186" s="4"/>
       <c r="AA186" s="4"/>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:27">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -9843,7 +9851,7 @@
       <c r="Z187" s="4"/>
       <c r="AA187" s="4"/>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:27">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -9872,7 +9880,7 @@
       <c r="Z188" s="4"/>
       <c r="AA188" s="4"/>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:27">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -9901,7 +9909,7 @@
       <c r="Z189" s="4"/>
       <c r="AA189" s="4"/>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:27">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -9930,7 +9938,7 @@
       <c r="Z190" s="4"/>
       <c r="AA190" s="4"/>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:27">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -9959,7 +9967,7 @@
       <c r="Z191" s="4"/>
       <c r="AA191" s="4"/>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -9988,7 +9996,7 @@
       <c r="Z192" s="4"/>
       <c r="AA192" s="4"/>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:27">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -10017,7 +10025,7 @@
       <c r="Z193" s="4"/>
       <c r="AA193" s="4"/>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:27">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -10046,7 +10054,7 @@
       <c r="Z194" s="4"/>
       <c r="AA194" s="4"/>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:27">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -10075,7 +10083,7 @@
       <c r="Z195" s="4"/>
       <c r="AA195" s="4"/>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:27">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -10104,7 +10112,7 @@
       <c r="Z196" s="4"/>
       <c r="AA196" s="4"/>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:27">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -10133,7 +10141,7 @@
       <c r="Z197" s="4"/>
       <c r="AA197" s="4"/>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:27">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -10162,7 +10170,7 @@
       <c r="Z198" s="4"/>
       <c r="AA198" s="4"/>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:27">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -10191,7 +10199,7 @@
       <c r="Z199" s="4"/>
       <c r="AA199" s="4"/>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:27">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -10220,7 +10228,7 @@
       <c r="Z200" s="4"/>
       <c r="AA200" s="4"/>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:27">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -10249,7 +10257,7 @@
       <c r="Z201" s="4"/>
       <c r="AA201" s="4"/>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:27">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -10278,7 +10286,7 @@
       <c r="Z202" s="4"/>
       <c r="AA202" s="4"/>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:27">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -10307,7 +10315,7 @@
       <c r="Z203" s="4"/>
       <c r="AA203" s="4"/>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:27">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -10336,7 +10344,7 @@
       <c r="Z204" s="4"/>
       <c r="AA204" s="4"/>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:27">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -10365,7 +10373,7 @@
       <c r="Z205" s="4"/>
       <c r="AA205" s="4"/>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:27">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -10394,7 +10402,7 @@
       <c r="Z206" s="4"/>
       <c r="AA206" s="4"/>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:27">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -10423,7 +10431,7 @@
       <c r="Z207" s="4"/>
       <c r="AA207" s="4"/>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:27">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -10452,7 +10460,7 @@
       <c r="Z208" s="4"/>
       <c r="AA208" s="4"/>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:27">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -10481,7 +10489,7 @@
       <c r="Z209" s="4"/>
       <c r="AA209" s="4"/>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:27">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -10510,7 +10518,7 @@
       <c r="Z210" s="4"/>
       <c r="AA210" s="4"/>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:27">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -10539,7 +10547,7 @@
       <c r="Z211" s="4"/>
       <c r="AA211" s="4"/>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:27">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -10568,7 +10576,7 @@
       <c r="Z212" s="4"/>
       <c r="AA212" s="4"/>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:27">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -10597,7 +10605,7 @@
       <c r="Z213" s="4"/>
       <c r="AA213" s="4"/>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:27">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -10626,7 +10634,7 @@
       <c r="Z214" s="4"/>
       <c r="AA214" s="4"/>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:27">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -10655,7 +10663,7 @@
       <c r="Z215" s="4"/>
       <c r="AA215" s="4"/>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:27">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -10684,7 +10692,7 @@
       <c r="Z216" s="4"/>
       <c r="AA216" s="4"/>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:27">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -10713,7 +10721,7 @@
       <c r="Z217" s="4"/>
       <c r="AA217" s="4"/>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:27">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -10742,7 +10750,7 @@
       <c r="Z218" s="4"/>
       <c r="AA218" s="4"/>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:27">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -10771,7 +10779,7 @@
       <c r="Z219" s="4"/>
       <c r="AA219" s="4"/>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:27">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -10800,7 +10808,7 @@
       <c r="Z220" s="4"/>
       <c r="AA220" s="4"/>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:27">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -10829,7 +10837,7 @@
       <c r="Z221" s="4"/>
       <c r="AA221" s="4"/>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:27">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -10858,7 +10866,7 @@
       <c r="Z222" s="4"/>
       <c r="AA222" s="4"/>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:27">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -10887,7 +10895,7 @@
       <c r="Z223" s="4"/>
       <c r="AA223" s="4"/>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:27">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -10916,7 +10924,7 @@
       <c r="Z224" s="4"/>
       <c r="AA224" s="4"/>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:27">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -10945,7 +10953,7 @@
       <c r="Z225" s="4"/>
       <c r="AA225" s="4"/>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:27">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -10974,7 +10982,7 @@
       <c r="Z226" s="4"/>
       <c r="AA226" s="4"/>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:27">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -11003,7 +11011,7 @@
       <c r="Z227" s="4"/>
       <c r="AA227" s="4"/>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:27">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -11032,7 +11040,7 @@
       <c r="Z228" s="4"/>
       <c r="AA228" s="4"/>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:27">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -11061,7 +11069,7 @@
       <c r="Z229" s="4"/>
       <c r="AA229" s="4"/>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:27">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -11090,7 +11098,7 @@
       <c r="Z230" s="4"/>
       <c r="AA230" s="4"/>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:27">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -11119,7 +11127,7 @@
       <c r="Z231" s="4"/>
       <c r="AA231" s="4"/>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:27">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -11148,7 +11156,7 @@
       <c r="Z232" s="4"/>
       <c r="AA232" s="4"/>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:27">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -11177,7 +11185,7 @@
       <c r="Z233" s="4"/>
       <c r="AA233" s="4"/>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:27">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -11206,7 +11214,7 @@
       <c r="Z234" s="4"/>
       <c r="AA234" s="4"/>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:27">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -11235,7 +11243,7 @@
       <c r="Z235" s="4"/>
       <c r="AA235" s="4"/>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:27">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -11264,7 +11272,7 @@
       <c r="Z236" s="4"/>
       <c r="AA236" s="4"/>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:27">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -11293,7 +11301,7 @@
       <c r="Z237" s="4"/>
       <c r="AA237" s="4"/>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:27">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -11322,7 +11330,7 @@
       <c r="Z238" s="4"/>
       <c r="AA238" s="4"/>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:27">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -11351,7 +11359,7 @@
       <c r="Z239" s="4"/>
       <c r="AA239" s="4"/>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:27">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -11380,7 +11388,7 @@
       <c r="Z240" s="4"/>
       <c r="AA240" s="4"/>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:27">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -11409,7 +11417,7 @@
       <c r="Z241" s="4"/>
       <c r="AA241" s="4"/>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:27">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -11438,7 +11446,7 @@
       <c r="Z242" s="4"/>
       <c r="AA242" s="4"/>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:27">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -11467,7 +11475,7 @@
       <c r="Z243" s="4"/>
       <c r="AA243" s="4"/>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:27">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -11496,7 +11504,7 @@
       <c r="Z244" s="4"/>
       <c r="AA244" s="4"/>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:27">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -11525,7 +11533,7 @@
       <c r="Z245" s="4"/>
       <c r="AA245" s="4"/>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:27">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -11554,7 +11562,7 @@
       <c r="Z246" s="4"/>
       <c r="AA246" s="4"/>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:27">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -11583,7 +11591,7 @@
       <c r="Z247" s="4"/>
       <c r="AA247" s="4"/>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:27">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -11612,7 +11620,7 @@
       <c r="Z248" s="4"/>
       <c r="AA248" s="4"/>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:27">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -11641,7 +11649,7 @@
       <c r="Z249" s="4"/>
       <c r="AA249" s="4"/>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:27">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -11670,7 +11678,7 @@
       <c r="Z250" s="4"/>
       <c r="AA250" s="4"/>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:27">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -11699,7 +11707,7 @@
       <c r="Z251" s="4"/>
       <c r="AA251" s="4"/>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:27">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -11728,7 +11736,7 @@
       <c r="Z252" s="4"/>
       <c r="AA252" s="4"/>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:27">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -11757,7 +11765,7 @@
       <c r="Z253" s="4"/>
       <c r="AA253" s="4"/>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:27">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -11786,7 +11794,7 @@
       <c r="Z254" s="4"/>
       <c r="AA254" s="4"/>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:27">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -11815,7 +11823,7 @@
       <c r="Z255" s="4"/>
       <c r="AA255" s="4"/>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:27">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -11844,7 +11852,7 @@
       <c r="Z256" s="4"/>
       <c r="AA256" s="4"/>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:27">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -11873,7 +11881,7 @@
       <c r="Z257" s="4"/>
       <c r="AA257" s="4"/>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:27">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -11902,7 +11910,7 @@
       <c r="Z258" s="4"/>
       <c r="AA258" s="4"/>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:27">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -11931,7 +11939,7 @@
       <c r="Z259" s="4"/>
       <c r="AA259" s="4"/>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:27">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -11960,7 +11968,7 @@
       <c r="Z260" s="4"/>
       <c r="AA260" s="4"/>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:27">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -11989,7 +11997,7 @@
       <c r="Z261" s="4"/>
       <c r="AA261" s="4"/>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:27">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -12018,7 +12026,7 @@
       <c r="Z262" s="4"/>
       <c r="AA262" s="4"/>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:27">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -12047,7 +12055,7 @@
       <c r="Z263" s="4"/>
       <c r="AA263" s="4"/>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:27">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -12076,7 +12084,7 @@
       <c r="Z264" s="4"/>
       <c r="AA264" s="4"/>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:27">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -12105,7 +12113,7 @@
       <c r="Z265" s="4"/>
       <c r="AA265" s="4"/>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:27">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -12134,7 +12142,7 @@
       <c r="Z266" s="4"/>
       <c r="AA266" s="4"/>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:27">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -12163,7 +12171,7 @@
       <c r="Z267" s="4"/>
       <c r="AA267" s="4"/>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:27">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -12192,7 +12200,7 @@
       <c r="Z268" s="4"/>
       <c r="AA268" s="4"/>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:27">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -12221,7 +12229,7 @@
       <c r="Z269" s="4"/>
       <c r="AA269" s="4"/>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:27">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -12250,7 +12258,7 @@
       <c r="Z270" s="4"/>
       <c r="AA270" s="4"/>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:27">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -12279,7 +12287,7 @@
       <c r="Z271" s="4"/>
       <c r="AA271" s="4"/>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:27">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -12308,7 +12316,7 @@
       <c r="Z272" s="4"/>
       <c r="AA272" s="4"/>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:27">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -12337,7 +12345,7 @@
       <c r="Z273" s="4"/>
       <c r="AA273" s="4"/>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:27">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -12366,7 +12374,7 @@
       <c r="Z274" s="4"/>
       <c r="AA274" s="4"/>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:27">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -12395,7 +12403,7 @@
       <c r="Z275" s="4"/>
       <c r="AA275" s="4"/>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:27">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -12424,7 +12432,7 @@
       <c r="Z276" s="4"/>
       <c r="AA276" s="4"/>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:27">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -12453,7 +12461,7 @@
       <c r="Z277" s="4"/>
       <c r="AA277" s="4"/>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:27">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -12482,7 +12490,7 @@
       <c r="Z278" s="4"/>
       <c r="AA278" s="4"/>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:27">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -12511,7 +12519,7 @@
       <c r="Z279" s="4"/>
       <c r="AA279" s="4"/>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:27">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -12558,7 +12566,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12570,7 +12578,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
